--- a/ar-ux-analyse/UX-Daten/UX-Daten.xlsx
+++ b/ar-ux-analyse/UX-Daten/UX-Daten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasper/Documents/Bachelor/UX Test Project/UX-Test-Platform/ar-ux-analyse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasper/Documents/Bachelor/UX Test Project/UX-Test-Platform/ar-ux-analyse/UX-Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76E40D3-9FD6-0A42-943E-AB905EAD092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B5BDE3-3468-CA45-92BD-3FBC1E82C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,7 @@
     <t>Einverständnis</t>
   </si>
   <si>
-    <t>Wie alt bist du?</t>
-  </si>
-  <si>
     <t>Mit welchem Geschlecht identifizierst du dich?</t>
-  </si>
-  <si>
-    <t>Hast du bereits Erfahrung mit Augmented Reality gemacht?</t>
   </si>
   <si>
     <t>Wie oft kaufst du online ein?</t>
@@ -459,6 +453,12 @@
   </si>
   <si>
     <t>Bild nicht vorzeigbar - vorzeigbar (HQ-I)</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Erfahrung mit Augmented Reality</t>
   </si>
 </sst>
 </file>
@@ -792,9 +792,9 @@
   <tableColumns count="66">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Zeitstempel"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Einverständnis"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Wie alt bist du?"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Alter"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Mit welchem Geschlecht identifizierst du dich?"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Hast du bereits Erfahrung mit Augmented Reality gemacht?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Erfahrung mit Augmented Reality"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Wie oft kaufst du online ein?"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="AR technisch - menschlich (PQ)"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AR kompliziert - einfach (PQ)"/>
@@ -1066,7 +1066,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN14" sqref="BN14"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1136,196 +1136,196 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BK1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BL1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:66" ht="15.75" customHeight="1">
@@ -1335,13 +1335,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="6">
         <v>3</v>
@@ -1512,16 +1512,16 @@
         <v>4</v>
       </c>
       <c r="BK2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BN2" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN2" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1">
@@ -1530,193 +1530,193 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9">
+        <v>6</v>
+      </c>
+      <c r="J3" s="9">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6</v>
+      </c>
+      <c r="L3" s="9">
+        <v>6</v>
+      </c>
+      <c r="M3" s="9">
+        <v>6</v>
+      </c>
+      <c r="N3" s="9">
+        <v>6</v>
+      </c>
+      <c r="O3" s="9">
+        <v>6</v>
+      </c>
+      <c r="P3" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>7</v>
+      </c>
+      <c r="R3" s="14">
+        <v>4</v>
+      </c>
+      <c r="S3" s="9">
+        <v>4</v>
+      </c>
+      <c r="T3" s="9">
+        <v>4</v>
+      </c>
+      <c r="U3" s="9">
+        <v>7</v>
+      </c>
+      <c r="V3" s="9">
+        <v>6</v>
+      </c>
+      <c r="W3" s="9">
+        <v>4</v>
+      </c>
+      <c r="X3" s="9">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>5</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AY3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="9">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="9">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC3" s="9">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BE3" s="9">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BH3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BJ3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BK3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="BL3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9">
-        <v>6</v>
-      </c>
-      <c r="I3" s="9">
-        <v>6</v>
-      </c>
-      <c r="J3" s="9">
-        <v>6</v>
-      </c>
-      <c r="K3" s="9">
-        <v>6</v>
-      </c>
-      <c r="L3" s="9">
-        <v>6</v>
-      </c>
-      <c r="M3" s="9">
-        <v>6</v>
-      </c>
-      <c r="N3" s="9">
-        <v>6</v>
-      </c>
-      <c r="O3" s="9">
-        <v>6</v>
-      </c>
-      <c r="P3" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>7</v>
-      </c>
-      <c r="R3" s="14">
-        <v>4</v>
-      </c>
-      <c r="S3" s="9">
-        <v>4</v>
-      </c>
-      <c r="T3" s="9">
-        <v>4</v>
-      </c>
-      <c r="U3" s="9">
-        <v>7</v>
-      </c>
-      <c r="V3" s="9">
-        <v>6</v>
-      </c>
-      <c r="W3" s="9">
-        <v>4</v>
-      </c>
-      <c r="X3" s="9">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>6</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>7</v>
-      </c>
-      <c r="AD3" s="9">
-        <v>6</v>
-      </c>
-      <c r="AE3" s="9">
-        <v>6</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="9">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="9">
-        <v>6</v>
-      </c>
-      <c r="AI3" s="9">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="9">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="9">
-        <v>4</v>
-      </c>
-      <c r="AL3" s="9">
-        <v>4</v>
-      </c>
-      <c r="AM3" s="9">
-        <v>3</v>
-      </c>
-      <c r="AN3" s="9">
-        <v>6</v>
-      </c>
-      <c r="AO3" s="9">
-        <v>5</v>
-      </c>
-      <c r="AP3" s="9">
-        <v>5</v>
-      </c>
-      <c r="AQ3" s="9">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="9">
-        <v>4</v>
-      </c>
-      <c r="AS3" s="9">
-        <v>4</v>
-      </c>
-      <c r="AT3" s="9">
-        <v>4</v>
-      </c>
-      <c r="AU3" s="9">
-        <v>4</v>
-      </c>
-      <c r="AV3" s="9">
-        <v>5</v>
-      </c>
-      <c r="AW3" s="9">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="9">
-        <v>3</v>
-      </c>
-      <c r="AY3" s="9">
-        <v>3</v>
-      </c>
-      <c r="AZ3" s="9">
-        <v>2</v>
-      </c>
-      <c r="BA3" s="9">
-        <v>2</v>
-      </c>
-      <c r="BB3" s="9">
-        <v>3</v>
-      </c>
-      <c r="BC3" s="9">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="9">
-        <v>4</v>
-      </c>
-      <c r="BE3" s="9">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="9">
-        <v>4</v>
-      </c>
-      <c r="BG3" s="9">
-        <v>4</v>
-      </c>
-      <c r="BH3" s="9">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="9">
-        <v>4</v>
-      </c>
-      <c r="BJ3" s="9">
-        <v>4</v>
-      </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BM3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="BN3" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="BM3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN3" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1">
@@ -1725,14 +1725,14 @@
         <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" s="6">
         <v>3</v>
       </c>
@@ -1902,16 +1902,16 @@
         <v>5</v>
       </c>
       <c r="BK4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BL4" s="6" t="s">
+      <c r="BN4" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN4" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1">
@@ -1920,193 +1920,193 @@
         <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9">
+        <v>6</v>
+      </c>
+      <c r="L5" s="9">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9">
+        <v>6</v>
+      </c>
+      <c r="N5" s="9">
+        <v>5</v>
+      </c>
+      <c r="O5" s="9">
+        <v>7</v>
+      </c>
+      <c r="P5" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>7</v>
+      </c>
+      <c r="R5" s="9">
+        <v>6</v>
+      </c>
+      <c r="S5" s="9">
+        <v>6</v>
+      </c>
+      <c r="T5" s="9">
+        <v>6</v>
+      </c>
+      <c r="U5" s="9">
+        <v>6</v>
+      </c>
+      <c r="V5" s="9">
+        <v>5</v>
+      </c>
+      <c r="W5" s="9">
+        <v>6</v>
+      </c>
+      <c r="X5" s="9">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AW5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AX5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>6</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BA5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="9">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="9">
+        <v>6</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE5" s="9">
+        <v>6</v>
+      </c>
+      <c r="BF5" s="9">
+        <v>6</v>
+      </c>
+      <c r="BG5" s="9">
+        <v>7</v>
+      </c>
+      <c r="BH5" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI5" s="9">
+        <v>6</v>
+      </c>
+      <c r="BJ5" s="9">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9">
-        <v>3</v>
-      </c>
-      <c r="I5" s="9">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9">
-        <v>6</v>
-      </c>
-      <c r="L5" s="9">
-        <v>6</v>
-      </c>
-      <c r="M5" s="9">
-        <v>6</v>
-      </c>
-      <c r="N5" s="9">
-        <v>5</v>
-      </c>
-      <c r="O5" s="9">
-        <v>7</v>
-      </c>
-      <c r="P5" s="9">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>7</v>
-      </c>
-      <c r="R5" s="9">
-        <v>6</v>
-      </c>
-      <c r="S5" s="9">
-        <v>6</v>
-      </c>
-      <c r="T5" s="9">
-        <v>6</v>
-      </c>
-      <c r="U5" s="9">
-        <v>6</v>
-      </c>
-      <c r="V5" s="9">
-        <v>5</v>
-      </c>
-      <c r="W5" s="9">
-        <v>6</v>
-      </c>
-      <c r="X5" s="9">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AK5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AL5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AN5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AO5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AU5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AW5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AX5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AZ5" s="9">
-        <v>5</v>
-      </c>
-      <c r="BA5" s="9">
-        <v>5</v>
-      </c>
-      <c r="BB5" s="9">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BD5" s="9">
-        <v>5</v>
-      </c>
-      <c r="BE5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BF5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BG5" s="9">
-        <v>7</v>
-      </c>
-      <c r="BH5" s="9">
-        <v>5</v>
-      </c>
-      <c r="BI5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BJ5" s="9">
-        <v>6</v>
-      </c>
-      <c r="BK5" s="9" t="s">
+      <c r="BM5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="BL5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM5" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="BN5" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:66" ht="15.75" customHeight="1">
@@ -2115,13 +2115,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="6">
         <v>3</v>
@@ -2292,16 +2292,16 @@
         <v>4</v>
       </c>
       <c r="BK6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BL6" s="6" t="s">
+      <c r="BN6" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="BM6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN6" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:66" ht="15.75" customHeight="1">
@@ -2310,14 +2310,14 @@
         <v>56</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="G7" s="9">
         <v>3</v>
       </c>
@@ -2487,16 +2487,16 @@
         <v>5</v>
       </c>
       <c r="BK7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BL7" s="9" t="s">
+      <c r="BN7" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="BM7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN7" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:66" ht="15.75" customHeight="1">
@@ -2505,13 +2505,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -2682,16 +2682,16 @@
         <v>4</v>
       </c>
       <c r="BK8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BL8" s="6" t="s">
+      <c r="BN8" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="BM8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN8" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:66" ht="15.75" customHeight="1">
@@ -2700,13 +2700,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" s="9">
         <v>3</v>
@@ -2877,16 +2877,16 @@
         <v>6</v>
       </c>
       <c r="BK9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BL9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BM9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BN9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="15.75" customHeight="1">
@@ -2895,13 +2895,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="G10" s="6">
         <v>5</v>
@@ -3072,16 +3072,16 @@
         <v>4</v>
       </c>
       <c r="BK10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BL10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM10" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="BN10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:66" ht="15.75" customHeight="1">
@@ -3090,13 +3090,13 @@
         <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11" s="9">
         <v>4</v>
@@ -3267,16 +3267,16 @@
         <v>4</v>
       </c>
       <c r="BK11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN11" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="BL11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="BN11" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:66" ht="15.75" customHeight="1">
@@ -3285,13 +3285,13 @@
         <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
@@ -3462,16 +3462,16 @@
         <v>6</v>
       </c>
       <c r="BK12" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BL12" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BM12" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BN12" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="15.75" customHeight="1">
@@ -3480,13 +3480,13 @@
         <v>59</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
@@ -3657,16 +3657,16 @@
         <v>5</v>
       </c>
       <c r="BK13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BL13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BM13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BN13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:66" ht="15.75" customHeight="1">
@@ -3675,13 +3675,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" s="6">
         <v>3</v>
@@ -3852,16 +3852,16 @@
         <v>4</v>
       </c>
       <c r="BK14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BL14" s="6" t="s">
+      <c r="BN14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="BM14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BN14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:66" ht="15.75" customHeight="1">
@@ -3870,13 +3870,13 @@
         <v>21</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="9">
         <v>7</v>
@@ -4047,16 +4047,16 @@
         <v>5</v>
       </c>
       <c r="BK15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BL15" s="9" t="s">
+      <c r="BN15" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="BM15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN15" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:66" ht="15.75" customHeight="1">
@@ -4065,13 +4065,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="6">
         <v>2</v>
@@ -4242,16 +4242,16 @@
         <v>6</v>
       </c>
       <c r="BK16" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BL16" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BM16" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BN16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:66" ht="15.75" customHeight="1">
@@ -4260,13 +4260,13 @@
         <v>22</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" s="9">
         <v>6</v>
@@ -4437,16 +4437,16 @@
         <v>5</v>
       </c>
       <c r="BK17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM17" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BL17" s="9" t="s">
+      <c r="BN17" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="BM17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BN17" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:66" ht="15.75" customHeight="1">
@@ -4455,13 +4455,13 @@
         <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="6">
         <v>1</v>
@@ -4632,16 +4632,16 @@
         <v>4</v>
       </c>
       <c r="BK18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="BL18" s="6" t="s">
+      <c r="BN18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="BM18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN18" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:66" ht="15.75" customHeight="1">
@@ -4650,13 +4650,13 @@
         <v>29</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" s="9">
         <v>2</v>
@@ -4827,16 +4827,16 @@
         <v>7</v>
       </c>
       <c r="BK19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BL19" s="9" t="s">
+      <c r="BN19" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="BM19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="BN19" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:66" ht="15.75" customHeight="1">
@@ -4845,13 +4845,13 @@
         <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G20" s="6">
         <v>2</v>
@@ -5022,16 +5022,16 @@
         <v>6</v>
       </c>
       <c r="BK20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BL20" s="6" t="s">
+      <c r="BN20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="BM20" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="BN20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:66" ht="15.75" customHeight="1">
@@ -5040,13 +5040,13 @@
         <v>53</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" s="9">
         <v>3</v>
@@ -5217,16 +5217,16 @@
         <v>4</v>
       </c>
       <c r="BK21" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BL21" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BM21" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BN21" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:66" ht="15.75" customHeight="1">
@@ -5235,13 +5235,13 @@
         <v>23</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G22" s="6">
         <v>3</v>
@@ -5412,16 +5412,16 @@
         <v>4</v>
       </c>
       <c r="BK22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="BL22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:66" ht="15.75" customHeight="1">
@@ -5430,13 +5430,13 @@
         <v>24</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G23" s="9">
         <v>2</v>
@@ -5607,16 +5607,16 @@
         <v>4</v>
       </c>
       <c r="BK23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN23" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="BL23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="BM23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN23" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:66" ht="15.75" customHeight="1">
@@ -5625,13 +5625,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24" s="6">
         <v>5</v>
@@ -5802,7 +5802,7 @@
         <v>6</v>
       </c>
       <c r="BK24" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BL24" s="6">
         <v>2</v>
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="BN24" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:66" ht="15.75" customHeight="1">
@@ -5820,13 +5820,13 @@
         <v>22</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" s="9">
         <v>2</v>
@@ -5997,16 +5997,16 @@
         <v>4</v>
       </c>
       <c r="BK25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN25" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="BL25" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="BM25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN25" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:66" ht="15.75" customHeight="1">
@@ -6015,13 +6015,13 @@
         <v>16</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" s="12">
         <v>4</v>
@@ -6192,16 +6192,16 @@
         <v>4</v>
       </c>
       <c r="BK26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL26" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM26" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="BL26" s="12" t="s">
+      <c r="BN26" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="BM26" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="BN26" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
